--- a/data/trans_orig/P6705-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6705-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EE03E73-038C-49E8-AC61-F2C003784DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79AFBEDA-23A6-4486-82C3-86D7F264A68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E8891558-3175-47EC-859E-9A3E2625CDF8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E676193-A112-49E2-B082-BB22A3AC14C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="518">
   <si>
     <t>Población según si su trabajo es desgastador emocionalmente en 2012 (Tasa respuesta: 33,81%)</t>
   </si>
@@ -76,1504 +76,1522 @@
     <t>23,32%</t>
   </si>
   <si>
-    <t>17,38%</t>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
   </si>
   <si>
     <t>29,63%</t>
   </si>
   <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo es desgastador emocionalmente en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo es desgastador emocionalmente en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
   </si>
   <si>
     <t>26,45%</t>
   </si>
   <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
   </si>
   <si>
     <t>30,36%</t>
   </si>
   <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo es desgastador emocionalmente en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
   </si>
   <si>
     <t>21,96%</t>
   </si>
   <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo es desgastador emocionalmente en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
     <t>12,2%</t>
   </si>
   <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
   </si>
   <si>
     <t>12,86%</t>
   </si>
   <si>
-    <t>10,32%</t>
+    <t>15,85%</t>
   </si>
   <si>
     <t>8,2%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>6,47%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +2003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53A072B-6F26-4565-A97F-4916E78A6124}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD78E393-5583-4170-AFAC-971AA434523C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2483,13 +2501,13 @@
         <v>99563</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>228</v>
@@ -2498,13 +2516,13 @@
         <v>239714</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2537,13 @@
         <v>257807</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>141</v>
@@ -2534,13 +2552,13 @@
         <v>153587</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>387</v>
@@ -2549,7 +2567,7 @@
         <v>411394</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>86</v>
@@ -2845,10 +2863,10 @@
         <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>145</v>
@@ -2857,13 +2875,13 @@
         <v>160599</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2896,13 @@
         <v>76745</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -2893,13 +2911,13 @@
         <v>48067</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>109</v>
@@ -2908,13 +2926,13 @@
         <v>124812</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2947,13 @@
         <v>63454</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>53</v>
@@ -2944,13 +2962,13 @@
         <v>59679</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
@@ -2959,13 +2977,13 @@
         <v>123133</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,10 +3051,10 @@
         <v>276495</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>152</v>
@@ -3219,10 +3237,10 @@
         <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3255,13 @@
         <v>231200</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>157</v>
@@ -3252,13 +3270,13 @@
         <v>170135</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>375</v>
@@ -3267,13 +3285,13 @@
         <v>401335</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,7 +3347,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3348,7 +3366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894834FD-51A6-4521-A78C-AE3BCBAD6E62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D4C420-013A-4024-9D69-AE9AB0718B05}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3365,7 +3383,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3472,13 +3490,13 @@
         <v>45370</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3487,13 +3505,13 @@
         <v>16343</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -3502,13 +3520,13 @@
         <v>61714</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3541,13 @@
         <v>27784</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -3538,13 +3556,13 @@
         <v>17923</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -3553,13 +3571,13 @@
         <v>45707</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3592,13 @@
         <v>44799</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -3589,13 +3607,13 @@
         <v>19920</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>61</v>
@@ -3604,13 +3622,13 @@
         <v>64719</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3643,13 @@
         <v>13225</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3640,13 +3658,13 @@
         <v>9070</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -3831,13 +3849,13 @@
         <v>176555</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="H11" s="7">
         <v>137</v>
@@ -3846,13 +3864,13 @@
         <v>138361</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>302</v>
@@ -3861,13 +3879,13 @@
         <v>314916</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3900,13 @@
         <v>259079</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>175</v>
@@ -3897,13 +3915,13 @@
         <v>183013</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>417</v>
@@ -3912,13 +3930,13 @@
         <v>442092</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3951,13 @@
         <v>161569</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -3948,10 +3966,10 @@
         <v>114551</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>269</v>
@@ -3963,13 +3981,13 @@
         <v>276120</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +4002,13 @@
         <v>86354</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="H14" s="7">
         <v>70</v>
@@ -3999,13 +4017,13 @@
         <v>73879</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>147</v>
@@ -4014,13 +4032,13 @@
         <v>160233</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4106,13 @@
         <v>71311</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
@@ -4103,13 +4121,13 @@
         <v>72629</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -4118,13 +4136,13 @@
         <v>143940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,10 +4160,10 @@
         <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>123</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -4154,10 +4172,10 @@
         <v>48776</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>292</v>
@@ -4205,13 +4223,13 @@
         <v>78383</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M18" s="7">
         <v>168</v>
@@ -4220,13 +4238,13 @@
         <v>178702</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4259,13 @@
         <v>65114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -4256,13 +4274,13 @@
         <v>57908</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>119</v>
@@ -4271,13 +4289,13 @@
         <v>123021</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>165</v>
+        <v>311</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4310,13 @@
         <v>46692</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -4307,13 +4325,13 @@
         <v>50757</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>313</v>
+        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>89</v>
@@ -4322,13 +4340,13 @@
         <v>97449</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>66</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4414,13 @@
         <v>358321</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>217</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
         <v>229</v>
@@ -4411,13 +4429,13 @@
         <v>231944</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
         <v>567</v>
@@ -4426,13 +4444,13 @@
         <v>590266</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>322</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4465,13 @@
         <v>271512</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H23" s="7">
         <v>203</v>
@@ -4465,10 +4483,10 @@
         <v>24</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
         <v>454</v>
@@ -4477,13 +4495,13 @@
         <v>476570</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4516,13 @@
         <v>404198</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="H24" s="7">
         <v>272</v>
@@ -4513,13 +4531,13 @@
         <v>281316</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M24" s="7">
         <v>646</v>
@@ -4528,13 +4546,13 @@
         <v>685513</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4567,13 @@
         <v>239908</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>59</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>179</v>
@@ -4564,13 +4582,13 @@
         <v>181528</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>342</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>407</v>
@@ -4579,13 +4597,13 @@
         <v>421436</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4618,13 @@
         <v>144985</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>277</v>
+        <v>352</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H26" s="7">
         <v>126</v>
@@ -4615,13 +4633,13 @@
         <v>133468</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>350</v>
+        <v>58</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>255</v>
@@ -4630,13 +4648,13 @@
         <v>278453</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,7 +4710,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4711,7 +4729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BFE5D6-CE6C-4394-BD83-AF2C89FEC173}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C949BF24-D53E-4C96-8A2F-C4426FD46DA3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4728,7 +4746,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4835,13 +4853,13 @@
         <v>10088</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4850,13 +4868,13 @@
         <v>4908</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>364</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4865,13 +4883,13 @@
         <v>14996</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>362</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4904,13 @@
         <v>10854</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>365</v>
+        <v>293</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4901,13 +4919,13 @@
         <v>3072</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -4916,13 +4934,13 @@
         <v>13925</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4955,13 @@
         <v>5326</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>375</v>
+        <v>203</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -4952,13 +4970,13 @@
         <v>10116</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M6" s="7">
         <v>21</v>
@@ -4967,13 +4985,13 @@
         <v>15443</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>306</v>
+        <v>382</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +5006,13 @@
         <v>6220</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5003,13 +5021,13 @@
         <v>2215</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -5018,13 +5036,13 @@
         <v>8435</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>388</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5057,13 @@
         <v>900</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5054,13 +5072,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -5069,13 +5087,13 @@
         <v>900</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5161,13 @@
         <v>131177</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H10" s="7">
         <v>96</v>
@@ -5158,13 +5176,13 @@
         <v>75422</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M10" s="7">
         <v>166</v>
@@ -5173,13 +5191,13 @@
         <v>206599</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5212,13 @@
         <v>56314</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -5209,13 +5227,13 @@
         <v>42425</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>409</v>
+        <v>100</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
@@ -5224,13 +5242,13 @@
         <v>98739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5263,13 @@
         <v>81809</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>281</v>
+        <v>416</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H12" s="7">
         <v>110</v>
@@ -5260,13 +5278,13 @@
         <v>83441</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M12" s="7">
         <v>184</v>
@@ -5275,13 +5293,13 @@
         <v>165250</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>156</v>
+        <v>423</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5314,13 @@
         <v>42994</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>421</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -5311,13 +5329,13 @@
         <v>31167</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>116</v>
+        <v>428</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -5326,13 +5344,13 @@
         <v>74161</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5365,13 @@
         <v>18654</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>433</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>435</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -5362,13 +5380,13 @@
         <v>20845</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>432</v>
+        <v>317</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -5377,13 +5395,13 @@
         <v>39499</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5469,13 @@
         <v>43282</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -5466,13 +5484,13 @@
         <v>37421</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>143</v>
+        <v>445</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -5481,13 +5499,13 @@
         <v>80703</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>207</v>
+        <v>448</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5520,13 @@
         <v>20847</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -5517,13 +5535,13 @@
         <v>16797</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>446</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -5532,13 +5550,13 @@
         <v>37644</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>342</v>
+        <v>455</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5571,13 @@
         <v>35744</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>137</v>
+        <v>458</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="H18" s="7">
         <v>38</v>
@@ -5568,13 +5586,13 @@
         <v>26744</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="M18" s="7">
         <v>75</v>
@@ -5583,13 +5601,13 @@
         <v>62487</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5622,13 @@
         <v>11378</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>224</v>
+        <v>469</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -5619,13 +5637,13 @@
         <v>19846</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -5634,13 +5652,13 @@
         <v>31223</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>465</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5673,13 @@
         <v>21168</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -5670,13 +5688,13 @@
         <v>13556</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>469</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -5685,13 +5703,13 @@
         <v>34724</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>471</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5777,13 @@
         <v>184547</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="H22" s="7">
         <v>146</v>
@@ -5774,13 +5792,13 @@
         <v>117751</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>484</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="M22" s="7">
         <v>264</v>
@@ -5789,13 +5807,13 @@
         <v>302298</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>479</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5828,13 @@
         <v>88015</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>424</v>
+        <v>121</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="H23" s="7">
         <v>88</v>
@@ -5825,13 +5843,13 @@
         <v>62294</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="M23" s="7">
         <v>163</v>
@@ -5840,13 +5858,13 @@
         <v>150308</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5879,13 @@
         <v>122879</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>489</v>
+        <v>18</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>411</v>
+        <v>114</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="H24" s="7">
         <v>163</v>
@@ -5876,13 +5894,13 @@
         <v>120300</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="M24" s="7">
         <v>280</v>
@@ -5891,13 +5909,13 @@
         <v>243180</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>491</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5930,13 @@
         <v>60591</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="H25" s="7">
         <v>72</v>
@@ -5927,13 +5945,13 @@
         <v>53228</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>499</v>
+        <v>103</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="M25" s="7">
         <v>127</v>
@@ -5942,13 +5960,13 @@
         <v>113819</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>503</v>
+        <v>357</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>190</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5981,13 @@
         <v>40722</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
@@ -5978,13 +5996,13 @@
         <v>34401</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>106</v>
+        <v>514</v>
       </c>
       <c r="M26" s="7">
         <v>72</v>
@@ -5993,13 +6011,13 @@
         <v>75123</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,7 +6073,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6705-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6705-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79AFBEDA-23A6-4486-82C3-86D7F264A68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{755F785E-CB02-41B8-BEE9-B0D281E627E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E676193-A112-49E2-B082-BB22A3AC14C0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F25B4C61-C8B2-4B28-94B9-B6D89F4886AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="522">
   <si>
     <t>Población según si su trabajo es desgastador emocionalmente en 2012 (Tasa respuesta: 33,81%)</t>
   </si>
@@ -76,1492 +76,1504 @@
     <t>23,32%</t>
   </si>
   <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
   </si>
   <si>
     <t>37,38%</t>
   </si>
   <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
   </si>
   <si>
     <t>29,41%</t>
   </si>
   <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo es desgastador emocionalmente en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo es desgastador emocionalmente en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
     <t>24,74%</t>
   </si>
   <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
   </si>
   <si>
     <t>13,72%</t>
   </si>
   <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo es desgastador emocionalmente en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
   </si>
   <si>
     <t>10,18%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo es desgastador emocionalmente en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
   </si>
   <si>
     <t>15,85%</t>
@@ -2003,7 +2015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD78E393-5583-4170-AFAC-971AA434523C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895CDF2A-D996-4C6D-B349-610A3A65FBB0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2465,13 +2477,13 @@
         <v>316106</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,13 +2498,13 @@
         <v>140151</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>95</v>
@@ -2501,7 +2513,7 @@
         <v>99563</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>74</v>
@@ -2639,7 +2651,7 @@
         <v>140187</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>97</v>
@@ -3054,10 +3066,10 @@
         <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>192</v>
@@ -3066,13 +3078,13 @@
         <v>209936</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>451</v>
@@ -3081,13 +3093,13 @@
         <v>486430</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3114,13 @@
         <v>216585</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>146</v>
@@ -3117,13 +3129,13 @@
         <v>154216</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>354</v>
@@ -3132,13 +3144,13 @@
         <v>370801</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,13 +3165,13 @@
         <v>409054</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>224</v>
@@ -3168,13 +3180,13 @@
         <v>241701</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>606</v>
@@ -3183,13 +3195,13 @@
         <v>650755</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,10 +3216,10 @@
         <v>275739</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>179</v>
@@ -3237,10 +3249,10 @@
         <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3267,13 @@
         <v>231200</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>157</v>
@@ -3270,13 +3282,13 @@
         <v>170135</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>375</v>
@@ -3285,13 +3297,13 @@
         <v>401335</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,7 +3359,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3366,7 +3378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D4C420-013A-4024-9D69-AE9AB0718B05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1E53CC-9797-473B-9396-A26E13FF7606}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3383,7 +3395,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3490,13 +3502,13 @@
         <v>45370</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3505,13 +3517,13 @@
         <v>16343</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -3520,10 +3532,10 @@
         <v>61714</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>203</v>
@@ -3559,10 +3571,10 @@
         <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -3571,13 +3583,13 @@
         <v>45707</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3604,13 @@
         <v>44799</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -3607,13 +3619,13 @@
         <v>19920</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>61</v>
@@ -3622,13 +3634,13 @@
         <v>64719</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3655,13 @@
         <v>13225</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3658,13 +3670,13 @@
         <v>9070</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -3673,13 +3685,13 @@
         <v>22295</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3861,13 @@
         <v>176555</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>90</v>
+        <v>249</v>
       </c>
       <c r="H11" s="7">
         <v>137</v>
@@ -3864,7 +3876,7 @@
         <v>138361</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>250</v>
@@ -3906,7 +3918,7 @@
         <v>256</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="H12" s="7">
         <v>175</v>
@@ -3915,13 +3927,13 @@
         <v>183013</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>259</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>260</v>
+        <v>147</v>
       </c>
       <c r="M12" s="7">
         <v>417</v>
@@ -3930,13 +3942,13 @@
         <v>442092</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3963,13 @@
         <v>161569</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -3966,13 +3978,13 @@
         <v>114551</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>152</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>266</v>
@@ -3981,13 +3993,13 @@
         <v>276120</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +4014,13 @@
         <v>86354</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>106</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>70</v>
@@ -4017,13 +4029,13 @@
         <v>73879</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>116</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>147</v>
@@ -4032,13 +4044,13 @@
         <v>160233</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4118,13 @@
         <v>71311</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
@@ -4121,13 +4133,13 @@
         <v>72629</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>43</v>
+        <v>282</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -4136,13 +4148,13 @@
         <v>143940</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4169,13 @@
         <v>67172</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -4172,13 +4184,13 @@
         <v>48776</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>108</v>
@@ -4187,13 +4199,13 @@
         <v>115948</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4220,13 @@
         <v>100319</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H18" s="7">
         <v>77</v>
@@ -4226,10 +4238,10 @@
         <v>145</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M18" s="7">
         <v>168</v>
@@ -4238,13 +4250,13 @@
         <v>178702</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4271,13 @@
         <v>65114</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -4274,13 +4286,13 @@
         <v>57908</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>119</v>
@@ -4289,13 +4301,13 @@
         <v>123021</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,7 +4343,7 @@
         <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>89</v>
@@ -4340,13 +4352,13 @@
         <v>97449</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4426,13 @@
         <v>358321</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>229</v>
@@ -4429,13 +4441,13 @@
         <v>231944</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>567</v>
@@ -4444,13 +4456,13 @@
         <v>590266</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4477,13 @@
         <v>271512</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>328</v>
+        <v>95</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H23" s="7">
         <v>203</v>
@@ -4483,10 +4495,10 @@
         <v>24</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M23" s="7">
         <v>454</v>
@@ -4495,13 +4507,13 @@
         <v>476570</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4528,13 @@
         <v>404198</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="H24" s="7">
         <v>272</v>
@@ -4531,13 +4543,13 @@
         <v>281316</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M24" s="7">
         <v>646</v>
@@ -4546,13 +4558,13 @@
         <v>685513</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4579,13 @@
         <v>239908</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>344</v>
+        <v>238</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>179</v>
@@ -4582,13 +4594,13 @@
         <v>181528</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>349</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M25" s="7">
         <v>407</v>
@@ -4597,13 +4609,13 @@
         <v>421436</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4630,13 @@
         <v>144985</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>353</v>
+        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>126</v>
@@ -4633,13 +4645,13 @@
         <v>133468</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>354</v>
+        <v>71</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M26" s="7">
         <v>255</v>
@@ -4648,13 +4660,13 @@
         <v>278453</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,7 +4722,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4729,7 +4741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C949BF24-D53E-4C96-8A2F-C4426FD46DA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B11E486-7126-4314-849D-7B0916C529A9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4746,7 +4758,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4853,10 +4865,10 @@
         <v>10088</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>361</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>362</v>
@@ -4886,10 +4898,10 @@
         <v>366</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4916,13 @@
         <v>10854</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4919,7 +4931,7 @@
         <v>3072</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>370</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>371</v>
@@ -4961,7 +4973,7 @@
         <v>377</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>203</v>
+        <v>378</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -4970,13 +4982,13 @@
         <v>10116</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M6" s="7">
         <v>21</v>
@@ -4985,13 +4997,13 @@
         <v>15443</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +5018,13 @@
         <v>6220</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5021,13 +5033,13 @@
         <v>2215</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -5036,13 +5048,13 @@
         <v>8435</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5069,13 @@
         <v>900</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>394</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5072,13 +5084,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -5087,13 +5099,13 @@
         <v>900</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>398</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,10 +5242,10 @@
         <v>411</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>100</v>
+        <v>412</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>412</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
@@ -5296,10 +5308,10 @@
         <v>422</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,7 +5326,7 @@
         <v>42994</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>424</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>425</v>
@@ -5332,10 +5344,10 @@
         <v>427</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -5344,13 +5356,13 @@
         <v>74161</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,13 +5377,13 @@
         <v>18654</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -5380,13 +5392,13 @@
         <v>20845</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -5535,13 +5547,13 @@
         <v>16797</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>453</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -5550,13 +5562,13 @@
         <v>37644</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,13 +5583,13 @@
         <v>35744</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H18" s="7">
         <v>38</v>
@@ -5586,13 +5598,13 @@
         <v>26744</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M18" s="7">
         <v>75</v>
@@ -5601,7 +5613,7 @@
         <v>62487</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>464</v>
+        <v>286</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>465</v>
@@ -5658,7 +5670,7 @@
         <v>474</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5700,13 @@
         <v>13556</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>280</v>
+        <v>478</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>216</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -5703,13 +5715,13 @@
         <v>34724</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,13 +5789,13 @@
         <v>184547</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H22" s="7">
         <v>146</v>
@@ -5792,13 +5804,13 @@
         <v>117751</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M22" s="7">
         <v>264</v>
@@ -5807,13 +5819,13 @@
         <v>302298</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>285</v>
+        <v>489</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,13 +5840,13 @@
         <v>88015</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>121</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="H23" s="7">
         <v>88</v>
@@ -5843,13 +5855,13 @@
         <v>62294</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M23" s="7">
         <v>163</v>
@@ -5858,13 +5870,13 @@
         <v>150308</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5891,13 @@
         <v>122879</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>18</v>
+        <v>499</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>114</v>
+        <v>500</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="H24" s="7">
         <v>163</v>
@@ -5894,13 +5906,13 @@
         <v>120300</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="M24" s="7">
         <v>280</v>
@@ -5909,13 +5921,13 @@
         <v>243180</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>501</v>
+        <v>179</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>303</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5942,13 @@
         <v>60591</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>502</v>
+        <v>110</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>504</v>
+        <v>279</v>
       </c>
       <c r="H25" s="7">
         <v>72</v>
@@ -5945,13 +5957,13 @@
         <v>53228</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>103</v>
+        <v>508</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="M25" s="7">
         <v>127</v>
@@ -5960,13 +5972,13 @@
         <v>113819</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>507</v>
+        <v>97</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>357</v>
+        <v>511</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +5993,13 @@
         <v>40722</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
@@ -5996,13 +6008,13 @@
         <v>34401</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="M26" s="7">
         <v>72</v>
@@ -6011,13 +6023,13 @@
         <v>75123</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,7 +6085,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6705-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6705-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{755F785E-CB02-41B8-BEE9-B0D281E627E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DF6BDC5-DE53-41A7-BA81-08BBC803023E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F25B4C61-C8B2-4B28-94B9-B6D89F4886AD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EAF9112F-AB6D-44BB-89E3-E9B175C54014}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="512">
   <si>
     <t>Población según si su trabajo es desgastador emocionalmente en 2012 (Tasa respuesta: 33,81%)</t>
   </si>
@@ -76,1534 +76,1504 @@
     <t>23,32%</t>
   </si>
   <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
   </si>
   <si>
     <t>37,38%</t>
   </si>
   <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
   </si>
   <si>
     <t>29,41%</t>
   </si>
   <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo es desgastador emocionalmente en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>12,92%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo es desgastador emocionalmente en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
   </si>
   <si>
     <t>12,86%</t>
   </si>
   <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo es desgastador emocionalmente en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo es desgastador emocionalmente en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
+    <t>10,32%</t>
   </si>
   <si>
     <t>8,2%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>6,47%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +1985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895CDF2A-D996-4C6D-B349-610A3A65FBB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EAA5C2-0E23-4B24-949E-50422921518B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2477,13 +2447,13 @@
         <v>316106</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,13 +2468,13 @@
         <v>140151</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>95</v>
@@ -2513,13 +2483,13 @@
         <v>99563</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>228</v>
@@ -2528,13 +2498,13 @@
         <v>239714</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2519,13 @@
         <v>257807</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>141</v>
@@ -2564,13 +2534,13 @@
         <v>153587</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>387</v>
@@ -2579,7 +2549,7 @@
         <v>411394</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>86</v>
@@ -2651,7 +2621,7 @@
         <v>140187</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>97</v>
@@ -2875,10 +2845,10 @@
         <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>145</v>
@@ -2887,13 +2857,13 @@
         <v>160599</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2878,13 @@
         <v>76745</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -2923,13 +2893,13 @@
         <v>48067</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>109</v>
@@ -2938,13 +2908,13 @@
         <v>124812</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2929,13 @@
         <v>63454</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>53</v>
@@ -2974,13 +2944,13 @@
         <v>59679</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
@@ -2989,13 +2959,13 @@
         <v>123133</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3033,13 @@
         <v>276495</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>192</v>
@@ -3078,13 +3048,13 @@
         <v>209936</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>451</v>
@@ -3093,13 +3063,13 @@
         <v>486430</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3084,13 @@
         <v>216585</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>146</v>
@@ -3129,13 +3099,13 @@
         <v>154216</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>354</v>
@@ -3144,13 +3114,13 @@
         <v>370801</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3135,13 @@
         <v>409054</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>224</v>
@@ -3180,13 +3150,13 @@
         <v>241701</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>606</v>
@@ -3195,13 +3165,13 @@
         <v>650755</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,10 +3186,10 @@
         <v>275739</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>179</v>
@@ -3303,7 +3273,7 @@
         <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,7 +3329,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3378,7 +3348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1E53CC-9797-473B-9396-A26E13FF7606}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDF188E-F01E-4067-AFE0-272BAB46220F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3395,7 +3365,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3502,13 +3472,13 @@
         <v>45370</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3517,10 +3487,10 @@
         <v>16343</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>201</v>
@@ -3535,10 +3505,10 @@
         <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3523,13 @@
         <v>27784</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -3568,13 +3538,13 @@
         <v>17923</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -3583,13 +3553,13 @@
         <v>45707</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3574,13 @@
         <v>44799</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -3619,10 +3589,10 @@
         <v>19920</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>218</v>
@@ -3676,7 +3646,7 @@
         <v>226</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -3685,13 +3655,13 @@
         <v>22295</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3831,13 @@
         <v>176555</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>248</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H11" s="7">
         <v>137</v>
@@ -3876,13 +3846,13 @@
         <v>138361</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>302</v>
@@ -3891,13 +3861,13 @@
         <v>314916</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3882,13 @@
         <v>259079</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>175</v>
@@ -3927,13 +3897,13 @@
         <v>183013</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>417</v>
@@ -3942,13 +3912,13 @@
         <v>442092</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3933,13 @@
         <v>161569</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -3978,13 +3948,13 @@
         <v>114551</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>266</v>
@@ -3993,13 +3963,13 @@
         <v>276120</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +3984,13 @@
         <v>86354</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>70</v>
@@ -4032,10 +4002,10 @@
         <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>116</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>147</v>
@@ -4044,13 +4014,13 @@
         <v>160233</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4088,13 @@
         <v>71311</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
@@ -4133,13 +4103,13 @@
         <v>72629</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>136</v>
@@ -4148,13 +4118,13 @@
         <v>143940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4139,13 @@
         <v>67172</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>123</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -4184,13 +4154,13 @@
         <v>48776</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>108</v>
@@ -4199,13 +4169,13 @@
         <v>115948</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4190,13 @@
         <v>100319</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H18" s="7">
         <v>77</v>
@@ -4235,10 +4205,10 @@
         <v>78383</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>299</v>
@@ -4292,7 +4262,7 @@
         <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M19" s="7">
         <v>119</v>
@@ -4301,13 +4271,13 @@
         <v>123021</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4292,13 @@
         <v>46692</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -4337,13 +4307,13 @@
         <v>50757</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>249</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>89</v>
@@ -4352,13 +4322,13 @@
         <v>97449</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4396,13 @@
         <v>358321</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>217</v>
       </c>
       <c r="H22" s="7">
         <v>229</v>
@@ -4441,13 +4411,13 @@
         <v>231944</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>567</v>
@@ -4456,13 +4426,13 @@
         <v>590266</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4447,13 @@
         <v>271512</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>95</v>
+        <v>324</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H23" s="7">
         <v>203</v>
@@ -4495,10 +4465,10 @@
         <v>24</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="M23" s="7">
         <v>454</v>
@@ -4507,13 +4477,13 @@
         <v>476570</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4498,13 @@
         <v>404198</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H24" s="7">
         <v>272</v>
@@ -4543,13 +4513,13 @@
         <v>281316</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M24" s="7">
         <v>646</v>
@@ -4558,13 +4528,13 @@
         <v>685513</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4549,13 @@
         <v>239908</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>238</v>
+        <v>340</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>347</v>
+        <v>59</v>
       </c>
       <c r="H25" s="7">
         <v>179</v>
@@ -4594,13 +4564,13 @@
         <v>181528</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="M25" s="7">
         <v>407</v>
@@ -4609,13 +4579,13 @@
         <v>421436</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4600,13 @@
         <v>144985</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>355</v>
+        <v>277</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>348</v>
       </c>
       <c r="H26" s="7">
         <v>126</v>
@@ -4645,13 +4615,13 @@
         <v>133468</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>71</v>
+        <v>349</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>113</v>
+        <v>350</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M26" s="7">
         <v>255</v>
@@ -4660,13 +4630,13 @@
         <v>278453</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,7 +4692,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4741,7 +4711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B11E486-7126-4314-849D-7B0916C529A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDBEB0-D479-4E96-BC14-192572CEB162}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4758,7 +4728,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4865,13 +4835,13 @@
         <v>10088</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>181</v>
+        <v>357</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4880,13 +4850,13 @@
         <v>4908</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>364</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4895,13 +4865,13 @@
         <v>14996</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4886,13 @@
         <v>10854</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>292</v>
+        <v>365</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4931,13 +4901,13 @@
         <v>3072</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>367</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -4946,13 +4916,13 @@
         <v>13925</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4937,13 @@
         <v>5326</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -4982,13 +4952,13 @@
         <v>10116</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M6" s="7">
         <v>21</v>
@@ -4997,13 +4967,13 @@
         <v>15443</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>383</v>
+        <v>306</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +4988,13 @@
         <v>6220</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5033,13 +5003,13 @@
         <v>2215</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -5048,13 +5018,13 @@
         <v>8435</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5039,13 @@
         <v>900</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>391</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5084,13 +5054,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -5099,13 +5069,13 @@
         <v>900</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,13 +5143,13 @@
         <v>131177</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H10" s="7">
         <v>96</v>
@@ -5188,13 +5158,13 @@
         <v>75422</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M10" s="7">
         <v>166</v>
@@ -5203,13 +5173,13 @@
         <v>206599</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5194,13 @@
         <v>56314</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -5239,13 +5209,13 @@
         <v>42425</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>410</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
@@ -5254,13 +5224,13 @@
         <v>98739</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5245,13 @@
         <v>81809</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>416</v>
+        <v>281</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H12" s="7">
         <v>110</v>
@@ -5290,13 +5260,13 @@
         <v>83441</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M12" s="7">
         <v>184</v>
@@ -5305,13 +5275,13 @@
         <v>165250</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>266</v>
+        <v>156</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5296,13 @@
         <v>42994</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -5341,13 +5311,13 @@
         <v>31167</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>116</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -5356,13 +5326,13 @@
         <v>74161</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5347,13 @@
         <v>18654</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>432</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>434</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -5392,13 +5362,13 @@
         <v>20845</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -5407,13 +5377,13 @@
         <v>39499</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,13 +5451,13 @@
         <v>43282</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -5496,13 +5466,13 @@
         <v>37421</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>445</v>
+        <v>143</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -5511,13 +5481,13 @@
         <v>80703</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>448</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5502,13 @@
         <v>20847</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -5547,13 +5517,13 @@
         <v>16797</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -5562,13 +5532,13 @@
         <v>37644</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>456</v>
+        <v>342</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5553,13 @@
         <v>35744</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>459</v>
+        <v>137</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="H18" s="7">
         <v>38</v>
@@ -5598,13 +5568,13 @@
         <v>26744</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="M18" s="7">
         <v>75</v>
@@ -5613,13 +5583,13 @@
         <v>62487</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>286</v>
+        <v>456</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>466</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5604,13 @@
         <v>11378</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>469</v>
+        <v>224</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -5649,13 +5619,13 @@
         <v>19846</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -5664,13 +5634,13 @@
         <v>31223</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5655,13 @@
         <v>21168</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -5700,13 +5670,13 @@
         <v>13556</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -5715,13 +5685,13 @@
         <v>34724</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>164</v>
+        <v>471</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,13 +5759,13 @@
         <v>184547</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="H22" s="7">
         <v>146</v>
@@ -5804,13 +5774,13 @@
         <v>117751</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="M22" s="7">
         <v>264</v>
@@ -5819,13 +5789,13 @@
         <v>302298</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5810,13 @@
         <v>88015</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>121</v>
+        <v>424</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="H23" s="7">
         <v>88</v>
@@ -5855,13 +5825,13 @@
         <v>62294</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="M23" s="7">
         <v>163</v>
@@ -5870,13 +5840,13 @@
         <v>150308</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5861,13 @@
         <v>122879</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>500</v>
+        <v>411</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="H24" s="7">
         <v>163</v>
@@ -5906,13 +5876,13 @@
         <v>120300</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="M24" s="7">
         <v>280</v>
@@ -5921,13 +5891,13 @@
         <v>243180</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>179</v>
+        <v>495</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5912,13 @@
         <v>60591</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>496</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>279</v>
+        <v>498</v>
       </c>
       <c r="H25" s="7">
         <v>72</v>
@@ -5957,13 +5927,13 @@
         <v>53228</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="M25" s="7">
         <v>127</v>
@@ -5972,13 +5942,13 @@
         <v>113819</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>97</v>
+        <v>502</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>512</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +5963,13 @@
         <v>40722</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
@@ -6008,13 +5978,13 @@
         <v>34401</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>518</v>
+        <v>106</v>
       </c>
       <c r="M26" s="7">
         <v>72</v>
@@ -6023,13 +5993,13 @@
         <v>75123</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,7 +6055,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6705-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6705-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DF6BDC5-DE53-41A7-BA81-08BBC803023E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFBC6E8A-0AB7-48FA-B4E5-A4D56F0D6076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EAF9112F-AB6D-44BB-89E3-E9B175C54014}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C0022FD5-9B5A-49E1-AB9E-4F510ED95CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="519">
   <si>
     <t>Población según si su trabajo es desgastador emocionalmente en 2012 (Tasa respuesta: 33,81%)</t>
   </si>
@@ -1108,112 +1108,112 @@
     <t>Población según si su trabajo es desgastador emocionalmente en 2023 (Tasa respuesta: 10,37%)</t>
   </si>
   <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,33%</t>
+    <t>12,53%</t>
   </si>
   <si>
     <t>0%</t>
@@ -1222,358 +1222,379 @@
     <t>5,61%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +2006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EAA5C2-0E23-4B24-949E-50422921518B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E18A07F-C1E5-460B-B473-0831ADBD0B40}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3315,7 +3336,7 @@
         <v>2195</v>
       </c>
       <c r="N27" s="7">
-        <v>2354800</v>
+        <v>2354801</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3348,7 +3369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDF188E-F01E-4067-AFE0-272BAB46220F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8225B1F5-185A-47A9-91B3-EA3F513AF196}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4474,7 +4495,7 @@
         <v>454</v>
       </c>
       <c r="N23" s="7">
-        <v>476570</v>
+        <v>476571</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>327</v>
@@ -4525,7 +4546,7 @@
         <v>646</v>
       </c>
       <c r="N24" s="7">
-        <v>685513</v>
+        <v>685514</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>336</v>
@@ -4678,7 +4699,7 @@
         <v>2329</v>
       </c>
       <c r="N27" s="7">
-        <v>2452238</v>
+        <v>2452239</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -4711,7 +4732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDBEB0-D479-4E96-BC14-192572CEB162}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD998DE-728C-460D-8EB6-9D60499701F8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4832,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>10088</v>
+        <v>9890</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>356</v>
@@ -4847,31 +4868,31 @@
         <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>4908</v>
+        <v>4424</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>359</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>360</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>14996</v>
+        <v>14314</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4904,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>10854</v>
+        <v>11306</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>366</v>
@@ -4898,7 +4919,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>3072</v>
+        <v>2741</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>367</v>
@@ -4913,7 +4934,7 @@
         <v>14</v>
       </c>
       <c r="N5" s="7">
-        <v>13925</v>
+        <v>14047</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>370</v>
@@ -4934,7 +4955,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>5326</v>
+        <v>5323</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>373</v>
@@ -4949,7 +4970,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>10116</v>
+        <v>9019</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>376</v>
@@ -4964,13 +4985,13 @@
         <v>21</v>
       </c>
       <c r="N6" s="7">
-        <v>15443</v>
+        <v>14342</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>380</v>
@@ -4985,7 +5006,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>6220</v>
+        <v>5617</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>381</v>
@@ -5000,22 +5021,22 @@
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>2215</v>
+        <v>2019</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>385</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>8435</v>
+        <v>7636</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>386</v>
@@ -5036,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>900</v>
+        <v>806</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>389</v>
@@ -5066,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>900</v>
+        <v>806</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>394</v>
@@ -5087,7 +5108,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="7">
-        <v>33387</v>
+        <v>32942</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -5102,7 +5123,7 @@
         <v>33</v>
       </c>
       <c r="I9" s="7">
-        <v>20311</v>
+        <v>18203</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -5117,7 +5138,7 @@
         <v>66</v>
       </c>
       <c r="N9" s="7">
-        <v>53698</v>
+        <v>51145</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -5140,7 +5161,7 @@
         <v>70</v>
       </c>
       <c r="D10" s="7">
-        <v>131177</v>
+        <v>323046</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>396</v>
@@ -5155,7 +5176,7 @@
         <v>96</v>
       </c>
       <c r="I10" s="7">
-        <v>75422</v>
+        <v>68646</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>399</v>
@@ -5170,7 +5191,7 @@
         <v>166</v>
       </c>
       <c r="N10" s="7">
-        <v>206599</v>
+        <v>391692</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>402</v>
@@ -5191,7 +5212,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>56314</v>
+        <v>53250</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>405</v>
@@ -5206,7 +5227,7 @@
         <v>60</v>
       </c>
       <c r="I11" s="7">
-        <v>42425</v>
+        <v>38828</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>408</v>
@@ -5221,7 +5242,7 @@
         <v>107</v>
       </c>
       <c r="N11" s="7">
-        <v>98739</v>
+        <v>92078</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>411</v>
@@ -5242,46 +5263,46 @@
         <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>81809</v>
+        <v>79183</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>281</v>
+        <v>414</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H12" s="7">
         <v>110</v>
       </c>
       <c r="I12" s="7">
-        <v>83441</v>
+        <v>76517</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M12" s="7">
         <v>184</v>
       </c>
       <c r="N12" s="7">
-        <v>165250</v>
+        <v>155700</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>156</v>
+        <v>421</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,46 +5314,46 @@
         <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>42994</v>
+        <v>39383</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
       </c>
       <c r="I13" s="7">
-        <v>31167</v>
+        <v>28182</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>424</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>116</v>
+        <v>426</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
       </c>
       <c r="N13" s="7">
-        <v>74161</v>
+        <v>67565</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>428</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,46 +5365,46 @@
         <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>18654</v>
+        <v>16942</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>430</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>432</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>20845</v>
+        <v>18930</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
       </c>
       <c r="N14" s="7">
-        <v>39499</v>
+        <v>35872</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,7 +5416,7 @@
         <v>246</v>
       </c>
       <c r="D15" s="7">
-        <v>330948</v>
+        <v>511804</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5410,7 +5431,7 @@
         <v>332</v>
       </c>
       <c r="I15" s="7">
-        <v>253300</v>
+        <v>231102</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -5425,7 +5446,7 @@
         <v>578</v>
       </c>
       <c r="N15" s="7">
-        <v>584248</v>
+        <v>742906</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5448,46 +5469,46 @@
         <v>36</v>
       </c>
       <c r="D16" s="7">
-        <v>43282</v>
+        <v>40905</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>437</v>
+        <v>334</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
       </c>
       <c r="I16" s="7">
-        <v>37421</v>
+        <v>34315</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>143</v>
+        <v>441</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
       </c>
       <c r="N16" s="7">
-        <v>80703</v>
+        <v>75220</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>207</v>
+        <v>444</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,46 +5520,46 @@
         <v>19</v>
       </c>
       <c r="D17" s="7">
-        <v>20847</v>
+        <v>19241</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>443</v>
+        <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
       </c>
       <c r="I17" s="7">
-        <v>16797</v>
+        <v>15918</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>446</v>
+        <v>367</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
       </c>
       <c r="N17" s="7">
-        <v>37644</v>
+        <v>35159</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>449</v>
+        <v>352</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,46 +5571,46 @@
         <v>37</v>
       </c>
       <c r="D18" s="7">
-        <v>35744</v>
+        <v>34532</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>137</v>
+        <v>452</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H18" s="7">
         <v>38</v>
       </c>
       <c r="I18" s="7">
-        <v>26744</v>
+        <v>25152</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M18" s="7">
         <v>75</v>
       </c>
       <c r="N18" s="7">
-        <v>62487</v>
+        <v>59685</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>457</v>
+        <v>267</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,46 +5622,46 @@
         <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>11378</v>
+        <v>10688</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>224</v>
+        <v>462</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
       </c>
       <c r="I19" s="7">
-        <v>19846</v>
+        <v>17708</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
       </c>
       <c r="N19" s="7">
-        <v>31223</v>
+        <v>28396</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,46 +5673,46 @@
         <v>14</v>
       </c>
       <c r="D20" s="7">
-        <v>21168</v>
+        <v>19849</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
       </c>
       <c r="I20" s="7">
-        <v>13556</v>
+        <v>12608</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>283</v>
+        <v>474</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
       </c>
       <c r="N20" s="7">
-        <v>34724</v>
+        <v>32456</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,7 +5724,7 @@
         <v>116</v>
       </c>
       <c r="D21" s="7">
-        <v>132419</v>
+        <v>125215</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -5718,7 +5739,7 @@
         <v>146</v>
       </c>
       <c r="I21" s="7">
-        <v>114363</v>
+        <v>105701</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5733,7 +5754,7 @@
         <v>262</v>
       </c>
       <c r="N21" s="7">
-        <v>246782</v>
+        <v>230916</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -5756,46 +5777,46 @@
         <v>118</v>
       </c>
       <c r="D22" s="7">
-        <v>184547</v>
+        <v>373842</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>296</v>
+        <v>479</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H22" s="7">
         <v>146</v>
       </c>
       <c r="I22" s="7">
-        <v>117751</v>
+        <v>107384</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="M22" s="7">
         <v>264</v>
       </c>
       <c r="N22" s="7">
-        <v>302298</v>
+        <v>481226</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,46 +5828,46 @@
         <v>75</v>
       </c>
       <c r="D23" s="7">
-        <v>88015</v>
+        <v>83796</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="H23" s="7">
         <v>88</v>
       </c>
       <c r="I23" s="7">
-        <v>62294</v>
+        <v>57487</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="M23" s="7">
         <v>163</v>
       </c>
       <c r="N23" s="7">
-        <v>150308</v>
+        <v>141284</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>486</v>
+        <v>112</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,46 +5879,46 @@
         <v>117</v>
       </c>
       <c r="D24" s="7">
-        <v>122879</v>
+        <v>119038</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>411</v>
+        <v>495</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="H24" s="7">
         <v>163</v>
       </c>
       <c r="I24" s="7">
-        <v>120300</v>
+        <v>110688</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="M24" s="7">
         <v>280</v>
       </c>
       <c r="N24" s="7">
-        <v>243180</v>
+        <v>229726</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,46 +5930,46 @@
         <v>55</v>
       </c>
       <c r="D25" s="7">
-        <v>60591</v>
+        <v>55688</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="H25" s="7">
         <v>72</v>
       </c>
       <c r="I25" s="7">
-        <v>53228</v>
+        <v>47909</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="M25" s="7">
         <v>127</v>
       </c>
       <c r="N25" s="7">
-        <v>113819</v>
+        <v>103597</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>190</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,46 +5981,46 @@
         <v>30</v>
       </c>
       <c r="D26" s="7">
-        <v>40722</v>
+        <v>37597</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>504</v>
+        <v>393</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
       </c>
       <c r="I26" s="7">
-        <v>34401</v>
+        <v>31537</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>106</v>
+        <v>516</v>
       </c>
       <c r="M26" s="7">
         <v>72</v>
       </c>
       <c r="N26" s="7">
-        <v>75123</v>
+        <v>69135</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>510</v>
+        <v>430</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,7 +6032,7 @@
         <v>395</v>
       </c>
       <c r="D27" s="7">
-        <v>496754</v>
+        <v>669961</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6026,7 +6047,7 @@
         <v>511</v>
       </c>
       <c r="I27" s="7">
-        <v>387974</v>
+        <v>355005</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6041,7 +6062,7 @@
         <v>906</v>
       </c>
       <c r="N27" s="7">
-        <v>884728</v>
+        <v>1024967</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
